--- a/slides/lecture05/summarizing_tables.xlsx
+++ b/slides/lecture05/summarizing_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/lecture05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9012" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1719E29-33D3-4C70-8425-80787B267FC2}"/>
+  <xr:revisionPtr revIDLastSave="9019" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9411BAD8-F56D-41EF-A5E3-3C6F9491E436}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summarizing tables" sheetId="32" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Genre</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>Please choose a person:</t>
-  </si>
-  <si>
-    <t>This is hard! Pay attention.</t>
   </si>
   <si>
     <r>
@@ -541,11 +538,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1330,7 +1327,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="1068" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1354,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3771946-DBDC-42F4-8804-8B794DE3714B}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:K44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,20 +1377,20 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="7" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1620,13 +1617,13 @@
       <c r="E20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1810,23 +1807,21 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1841,7 +1836,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1973,7 +1968,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>DOLLAR(1,0)</f>
-        <v>kr 1</v>
+        <v>£1</v>
       </c>
       <c r="B3" t="str">
         <f>ADDRESS(1,1,2,0)</f>
@@ -1981,7 +1976,7 @@
       </c>
       <c r="C3" t="str">
         <f>FIXED(1E+21, 0, FALSE)</f>
-        <v>1 000 000 000 000 000 000 000</v>
+        <v>1,000,000,000,000,000,000,000</v>
       </c>
     </row>
   </sheetData>
